--- a/Finance Workbook.xlsx
+++ b/Finance Workbook.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopikrishna/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopikrishna/Desktop/Stock-Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC36CC-9A9D-394E-BC55-A2B961DF6AEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1240C7BE-AA91-E745-9C92-1927D79E0D73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32680" windowHeight="17440" activeTab="5" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
   </bookViews>
   <sheets>
     <sheet name="Futures" sheetId="7" r:id="rId1"/>
     <sheet name="Options" sheetId="1" r:id="rId2"/>
-    <sheet name="Retirement" sheetId="4" r:id="rId3"/>
-    <sheet name="Expense Ratio" sheetId="5" r:id="rId4"/>
-    <sheet name="XIIR" sheetId="6" r:id="rId5"/>
+    <sheet name="Strategy" sheetId="8" r:id="rId3"/>
+    <sheet name="Retirement" sheetId="4" r:id="rId4"/>
+    <sheet name="Expense Ratio" sheetId="5" r:id="rId5"/>
+    <sheet name="XIIR" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Strike price</t>
   </si>
@@ -161,18 +162,67 @@
   </si>
   <si>
     <t>Calculate Futures price</t>
+  </si>
+  <si>
+    <t>Straddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Contract value</t>
+  </si>
+  <si>
+    <t>CALL P/L</t>
+  </si>
+  <si>
+    <t>PUT P/L</t>
+  </si>
+  <si>
+    <t>Total P/L</t>
+  </si>
+  <si>
+    <t>Gross P/L</t>
+  </si>
+  <si>
+    <t>Net P/L</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Strangle</t>
+  </si>
+  <si>
+    <t>Call option 14900</t>
+  </si>
+  <si>
+    <t>Put option 14900</t>
+  </si>
+  <si>
+    <t>OTM</t>
+  </si>
+  <si>
+    <t>Call option 15000</t>
+  </si>
+  <si>
+    <t>Put option 14800</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="169" formatCode="&quot;Rs.&quot;\ #,##0.00;[Red]&quot;Rs.&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="&quot;₹&quot;#,##0;[Red]&quot;₹&quot;#,##0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="&quot;Rs.&quot;\ #,##0.00;[Red]&quot;Rs.&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;₹&quot;#,##0;[Red]&quot;₹&quot;#,##0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,8 +341,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +414,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,11 +545,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,21 +563,10 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +593,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,9 +602,9 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -547,15 +619,45 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="11" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -563,6 +665,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCAB9F"/>
+      <color rgb="FFFF8F8C"/>
+      <color rgb="FFFF8885"/>
       <color rgb="FF7099F1"/>
     </mruColors>
   </colors>
@@ -887,45 +992,45 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="30">
         <v>33858</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="30">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="30">
         <v>3.2480000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="2:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="32">
         <f>F6*(1+F7/265*F8)</f>
         <v>33965.895863547172</v>
       </c>
@@ -942,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AE005-184B-1943-9D30-C7A1D1A17FC4}">
   <dimension ref="C2:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,12 +1062,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="5" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
@@ -1141,6 +1246,935 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584EC7AD-322E-BE47-A368-5BD4EA95D8F5}">
+  <dimension ref="A2:U21"/>
+  <sheetViews>
+    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="L2" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>274.8</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>20610</v>
+      </c>
+      <c r="E5">
+        <v>14100</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
+        <f>G5+F5</f>
+        <v>800</v>
+      </c>
+      <c r="I5" s="45">
+        <f>H5*75</f>
+        <v>60000</v>
+      </c>
+      <c r="J5" s="46">
+        <f>I5-42360</f>
+        <v>17640</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5">
+        <v>222.05</v>
+      </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5" s="49">
+        <f>M5*N5</f>
+        <v>16653.75</v>
+      </c>
+      <c r="P5">
+        <v>14100</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>700</v>
+      </c>
+      <c r="S5">
+        <f>R5+Q5</f>
+        <v>700</v>
+      </c>
+      <c r="T5" s="45">
+        <f>S5*75</f>
+        <v>52500</v>
+      </c>
+      <c r="U5" s="46">
+        <f>T5-35344</f>
+        <v>17156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>290</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <f>B6*C6</f>
+        <v>21750</v>
+      </c>
+      <c r="E6">
+        <v>14200</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H21" si="0">G6+F6</f>
+        <v>700</v>
+      </c>
+      <c r="I6" s="45">
+        <f t="shared" ref="I6:I21" si="1">H6*75</f>
+        <v>52500</v>
+      </c>
+      <c r="J6" s="46">
+        <f t="shared" ref="J6:J21" si="2">I6-42360</f>
+        <v>10140</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6">
+        <v>249.2</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
+      </c>
+      <c r="O6">
+        <f>M6*N6</f>
+        <v>18690</v>
+      </c>
+      <c r="P6">
+        <v>14200</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>600</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S21" si="3">R6+Q6</f>
+        <v>600</v>
+      </c>
+      <c r="T6" s="45">
+        <f t="shared" ref="T6:T21" si="4">S6*75</f>
+        <v>45000</v>
+      </c>
+      <c r="U6" s="46">
+        <f t="shared" ref="U6:U21" si="5">T6-35344</f>
+        <v>9656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44">
+        <f>SUM(D5:D6)</f>
+        <v>42360</v>
+      </c>
+      <c r="E7">
+        <v>14300</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="I7" s="45">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="J7" s="46">
+        <f t="shared" si="2"/>
+        <v>2640</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="50">
+        <f>SUM(O5:O6)</f>
+        <v>35343.75</v>
+      </c>
+      <c r="P7">
+        <v>14300</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>500</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="T7" s="45">
+        <f t="shared" si="4"/>
+        <v>37500</v>
+      </c>
+      <c r="U7" s="46">
+        <f t="shared" si="5"/>
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>14400</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="I8" s="45">
+        <f t="shared" si="1"/>
+        <v>37500</v>
+      </c>
+      <c r="J8" s="47">
+        <f t="shared" si="2"/>
+        <v>-4860</v>
+      </c>
+      <c r="P8">
+        <v>14400</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>400</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="T8" s="45">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="U8" s="47">
+        <f t="shared" si="5"/>
+        <v>-5344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>14500</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I9" s="45">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="J9" s="47">
+        <f t="shared" si="2"/>
+        <v>-12360</v>
+      </c>
+      <c r="P9">
+        <v>14500</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>300</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="T9" s="45">
+        <f t="shared" si="4"/>
+        <v>22500</v>
+      </c>
+      <c r="U9" s="47">
+        <f t="shared" si="5"/>
+        <v>-12844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>14600</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I10" s="45">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
+      <c r="J10" s="47">
+        <f t="shared" si="2"/>
+        <v>-19860</v>
+      </c>
+      <c r="P10">
+        <v>14600</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>200</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="T10" s="45">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="U10" s="47">
+        <f t="shared" si="5"/>
+        <v>-20344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>14700</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I11" s="45">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="J11" s="47">
+        <f t="shared" si="2"/>
+        <v>-27360</v>
+      </c>
+      <c r="P11">
+        <v>14700</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="T11" s="45">
+        <f t="shared" si="4"/>
+        <v>7500</v>
+      </c>
+      <c r="U11" s="47">
+        <f t="shared" si="5"/>
+        <v>-27844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>14800</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="45">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="J12" s="47">
+        <f t="shared" si="2"/>
+        <v>-34860</v>
+      </c>
+      <c r="P12">
+        <v>14800</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="47">
+        <f t="shared" si="5"/>
+        <v>-35344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E13" s="43">
+        <v>14900</v>
+      </c>
+      <c r="F13" s="43">
+        <v>0</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0</v>
+      </c>
+      <c r="H13" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="47">
+        <f t="shared" si="2"/>
+        <v>-42360</v>
+      </c>
+      <c r="P13" s="43">
+        <v>14900</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>0</v>
+      </c>
+      <c r="R13" s="43">
+        <v>0</v>
+      </c>
+      <c r="S13" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="47">
+        <f t="shared" si="5"/>
+        <v>-35344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>15000</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I14" s="45">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="J14" s="47">
+        <f t="shared" si="2"/>
+        <v>-34860</v>
+      </c>
+      <c r="P14">
+        <v>15000</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="47">
+        <f t="shared" si="5"/>
+        <v>-35344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>15100</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I15" s="45">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="J15" s="47">
+        <f t="shared" si="2"/>
+        <v>-27360</v>
+      </c>
+      <c r="P15">
+        <v>15100</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="T15" s="45">
+        <f t="shared" si="4"/>
+        <v>7500</v>
+      </c>
+      <c r="U15" s="47">
+        <f t="shared" si="5"/>
+        <v>-27844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>15200</v>
+      </c>
+      <c r="F16">
+        <v>300</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I16" s="45">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
+      <c r="J16" s="47">
+        <f t="shared" si="2"/>
+        <v>-19860</v>
+      </c>
+      <c r="P16">
+        <v>15200</v>
+      </c>
+      <c r="Q16">
+        <v>200</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="T16" s="45">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="U16" s="47">
+        <f t="shared" si="5"/>
+        <v>-20344</v>
+      </c>
+    </row>
+    <row r="17" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>15300</v>
+      </c>
+      <c r="F17">
+        <v>400</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I17" s="45">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="J17" s="47">
+        <f t="shared" si="2"/>
+        <v>-12360</v>
+      </c>
+      <c r="P17">
+        <v>15300</v>
+      </c>
+      <c r="Q17">
+        <v>300</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="T17" s="45">
+        <f t="shared" si="4"/>
+        <v>22500</v>
+      </c>
+      <c r="U17" s="47">
+        <f t="shared" si="5"/>
+        <v>-12844</v>
+      </c>
+    </row>
+    <row r="18" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>15400</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="I18" s="45">
+        <f t="shared" si="1"/>
+        <v>37500</v>
+      </c>
+      <c r="J18" s="47">
+        <f t="shared" si="2"/>
+        <v>-4860</v>
+      </c>
+      <c r="P18">
+        <v>15400</v>
+      </c>
+      <c r="Q18">
+        <v>400</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="T18" s="45">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="U18" s="47">
+        <f t="shared" si="5"/>
+        <v>-5344</v>
+      </c>
+    </row>
+    <row r="19" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>15500</v>
+      </c>
+      <c r="F19">
+        <v>600</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="I19" s="45">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="J19" s="46">
+        <f t="shared" si="2"/>
+        <v>2640</v>
+      </c>
+      <c r="P19">
+        <v>15500</v>
+      </c>
+      <c r="Q19">
+        <v>500</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="T19" s="45">
+        <f t="shared" si="4"/>
+        <v>37500</v>
+      </c>
+      <c r="U19" s="46">
+        <f t="shared" si="5"/>
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="20" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>15600</v>
+      </c>
+      <c r="F20">
+        <v>700</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="I20" s="45">
+        <f t="shared" si="1"/>
+        <v>52500</v>
+      </c>
+      <c r="J20" s="46">
+        <f t="shared" si="2"/>
+        <v>10140</v>
+      </c>
+      <c r="P20">
+        <v>15600</v>
+      </c>
+      <c r="Q20">
+        <v>600</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="T20" s="45">
+        <f t="shared" si="4"/>
+        <v>45000</v>
+      </c>
+      <c r="U20" s="46">
+        <f t="shared" si="5"/>
+        <v>9656</v>
+      </c>
+    </row>
+    <row r="21" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>15700</v>
+      </c>
+      <c r="F21">
+        <v>800</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I21" s="45">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="J21" s="46">
+        <f t="shared" si="2"/>
+        <v>17640</v>
+      </c>
+      <c r="P21">
+        <v>15700</v>
+      </c>
+      <c r="Q21">
+        <v>700</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="T21" s="45">
+        <f t="shared" si="4"/>
+        <v>52500</v>
+      </c>
+      <c r="U21" s="46">
+        <f t="shared" si="5"/>
+        <v>17156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="L2:U2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46438A62-3AC3-F843-A8D4-A58E565EA94A}">
   <dimension ref="D4:E18"/>
   <sheetViews>
@@ -1156,107 +2190,107 @@
   <sheetData>
     <row r="4" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="8">
         <v>50000</v>
       </c>
     </row>
     <row r="10" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="10">
         <f>E10-E8</f>
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="9">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="11">
         <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="13">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="15">
         <f>(FV(E14,E11, ,-E9))*E13</f>
         <v>409219.03688479384</v>
       </c>
     </row>
     <row r="16" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="10">
         <f>E12-E10</f>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="16">
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="15">
         <f>PV((E17-E14)/12,E16*12,-E15, ,1)</f>
         <v>43499735.242404155</v>
       </c>
@@ -1269,7 +2303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCBB51-4AF3-FD4B-A043-A4621ACBF22E}">
   <dimension ref="C4:I17"/>
   <sheetViews>
@@ -1286,7 +2320,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1297,7 +2331,7 @@
       <c r="E7" s="4">
         <v>100000</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1305,7 +2339,7 @@
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="18">
         <v>0.15</v>
       </c>
     </row>
@@ -1318,13 +2352,13 @@
       </c>
     </row>
     <row r="12" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1333,7 +2367,7 @@
       <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="22">
         <f>(E7*(1+(E8-E12))^E9)</f>
         <v>1636653.7392946081</v>
       </c>
@@ -1349,13 +2383,13 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="18">
         <v>0.01</v>
       </c>
     </row>
@@ -1364,7 +2398,7 @@
       <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="20">
         <f>(E7*(1+(E8-E16))^E9)</f>
         <v>1374348.9871854982</v>
       </c>
@@ -1374,7 +2408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C2EF3C-66FF-F748-9EAF-0DCFFFC78FCB}">
   <dimension ref="C2:G29"/>
   <sheetViews>
@@ -1390,35 +2424,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="30">
+      <c r="C6" s="23">
         <v>43665</v>
       </c>
       <c r="D6">
         <v>-3500</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="23">
         <v>43665</v>
       </c>
       <c r="G6">
@@ -1426,13 +2460,13 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="31">
+      <c r="C7" s="24">
         <v>43718</v>
       </c>
       <c r="D7">
         <v>-3500</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="24">
         <v>43718</v>
       </c>
       <c r="G7">
@@ -1440,13 +2474,13 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="31">
+      <c r="C8" s="24">
         <v>43747</v>
       </c>
       <c r="D8">
         <v>-3500</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="24">
         <v>43747</v>
       </c>
       <c r="G8">
@@ -1454,13 +2488,13 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="31">
+      <c r="C9" s="24">
         <v>43778</v>
       </c>
       <c r="D9">
         <v>-3500</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="24">
         <v>43778</v>
       </c>
       <c r="G9">
@@ -1468,13 +2502,13 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="31">
+      <c r="C10" s="24">
         <v>43808</v>
       </c>
       <c r="D10">
         <v>-3500</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="24">
         <v>43808</v>
       </c>
       <c r="G10">
@@ -1482,13 +2516,13 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="31">
+      <c r="C11" s="24">
         <v>43839</v>
       </c>
       <c r="D11">
         <v>-3500</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="24">
         <v>43839</v>
       </c>
       <c r="G11">
@@ -1496,13 +2530,13 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="31">
+      <c r="C12" s="24">
         <v>43870</v>
       </c>
       <c r="D12">
         <v>-3500</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="24">
         <v>43870</v>
       </c>
       <c r="G12">
@@ -1510,13 +2544,13 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="31">
+      <c r="C13" s="24">
         <v>43899</v>
       </c>
       <c r="D13">
         <v>-3500</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="24">
         <v>43899</v>
       </c>
       <c r="G13">
@@ -1524,13 +2558,13 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="31">
+      <c r="C14" s="24">
         <v>43930</v>
       </c>
       <c r="D14">
         <v>-5000</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="24">
         <v>43930</v>
       </c>
       <c r="G14">
@@ -1538,13 +2572,13 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="31">
+      <c r="C15" s="24">
         <v>43962</v>
       </c>
       <c r="D15">
         <v>-5000</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="24">
         <v>43962</v>
       </c>
       <c r="G15">
@@ -1552,13 +2586,13 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="31">
+      <c r="C16" s="24">
         <v>43991</v>
       </c>
       <c r="D16">
         <v>-5000</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="24">
         <v>43991</v>
       </c>
       <c r="G16">
@@ -1566,13 +2600,13 @@
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="31">
+      <c r="C17" s="24">
         <v>44021</v>
       </c>
       <c r="D17">
         <v>-5000</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="24">
         <v>44021</v>
       </c>
       <c r="G17">
@@ -1580,13 +2614,13 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="31">
+      <c r="C18" s="24">
         <v>44051</v>
       </c>
       <c r="D18">
         <v>-5000</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="24">
         <v>44051</v>
       </c>
       <c r="G18">
@@ -1594,13 +2628,13 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="31">
+      <c r="C19" s="24">
         <v>44084</v>
       </c>
       <c r="D19">
         <v>-5000</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="24">
         <v>44084</v>
       </c>
       <c r="G19">
@@ -1608,13 +2642,13 @@
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="31">
+      <c r="C20" s="24">
         <v>44113</v>
       </c>
       <c r="D20">
         <v>-5000</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="24">
         <v>44113</v>
       </c>
       <c r="G20">
@@ -1622,13 +2656,13 @@
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="31">
+      <c r="C21" s="24">
         <v>44144</v>
       </c>
       <c r="D21">
         <v>-5000</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="24">
         <v>44144</v>
       </c>
       <c r="G21">
@@ -1636,13 +2670,13 @@
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="31">
+      <c r="C22" s="24">
         <v>44175</v>
       </c>
       <c r="D22">
         <v>-5000</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="24">
         <v>44175</v>
       </c>
       <c r="G22">
@@ -1650,13 +2684,13 @@
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="31">
+      <c r="C23" s="24">
         <v>44205</v>
       </c>
       <c r="D23">
         <v>-5000</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="24">
         <v>44205</v>
       </c>
       <c r="G23">
@@ -1664,13 +2698,13 @@
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="31">
+      <c r="C24" s="24">
         <v>44236</v>
       </c>
       <c r="D24">
         <v>-5000</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="24">
         <v>44236</v>
       </c>
       <c r="G24">
@@ -1678,13 +2712,13 @@
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="31">
+      <c r="C25" s="24">
         <v>44264</v>
       </c>
       <c r="D25">
         <v>-5000</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="24">
         <v>44264</v>
       </c>
       <c r="G25">
@@ -1692,13 +2726,13 @@
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="31">
+      <c r="C26" s="24">
         <v>44287</v>
       </c>
       <c r="D26">
         <v>112299</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="24">
         <v>44287</v>
       </c>
       <c r="G26">
@@ -1706,27 +2740,27 @@
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="C27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="26">
         <f>XIRR(D6:D26,C6:C26)</f>
         <v>0.34655593037605292</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <f>XIRR(G6:G26,F6:F26)</f>
         <v>0.48079140782356256</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="31"/>
+      <c r="F29" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Finance Workbook.xlsx
+++ b/Finance Workbook.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopikrishna/Desktop/Stock-Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1240C7BE-AA91-E745-9C92-1927D79E0D73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D16DE69-C60C-1946-B5DE-2896921061A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32680" windowHeight="17440" activeTab="5" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32680" windowHeight="17440" activeTab="3" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
   </bookViews>
   <sheets>
     <sheet name="Futures" sheetId="7" r:id="rId1"/>
     <sheet name="Options" sheetId="1" r:id="rId2"/>
-    <sheet name="Strategy" sheetId="8" r:id="rId3"/>
-    <sheet name="Retirement" sheetId="4" r:id="rId4"/>
-    <sheet name="Expense Ratio" sheetId="5" r:id="rId5"/>
-    <sheet name="XIIR" sheetId="6" r:id="rId6"/>
+    <sheet name="Straddle vs Strangle" sheetId="8" r:id="rId3"/>
+    <sheet name="Options Strategy" sheetId="9" r:id="rId4"/>
+    <sheet name="Retirement" sheetId="4" r:id="rId5"/>
+    <sheet name="Expense Ratio" sheetId="5" r:id="rId6"/>
+    <sheet name="XIIR" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
   <si>
     <t>Strike price</t>
   </si>
@@ -210,6 +211,126 @@
   </si>
   <si>
     <t>Put option 14800</t>
+  </si>
+  <si>
+    <t>Options Strategy</t>
+  </si>
+  <si>
+    <t>1st leg</t>
+  </si>
+  <si>
+    <t>2nd leg</t>
+  </si>
+  <si>
+    <t>Bull CALL spread</t>
+  </si>
+  <si>
+    <t>Buy CE ATM</t>
+  </si>
+  <si>
+    <t>Sell CE slight OTM</t>
+  </si>
+  <si>
+    <t>Strategy profile</t>
+  </si>
+  <si>
+    <t>Bullish</t>
+  </si>
+  <si>
+    <t>Bull PUT spread</t>
+  </si>
+  <si>
+    <t>Buy PE OTM</t>
+  </si>
+  <si>
+    <t>Sell PE ATM</t>
+  </si>
+  <si>
+    <t>Buy CALL</t>
+  </si>
+  <si>
+    <t>Sell CALL</t>
+  </si>
+  <si>
+    <t>Buy PUT</t>
+  </si>
+  <si>
+    <t>Sell PUT</t>
+  </si>
+  <si>
+    <t>Very Bullish</t>
+  </si>
+  <si>
+    <t>Very Bearish</t>
+  </si>
+  <si>
+    <t>Buy ATM or slight OTM CE</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Buy ATM or slight OTM PE</t>
+  </si>
+  <si>
+    <t>Bearish</t>
+  </si>
+  <si>
+    <t>Sell far OTM CE</t>
+  </si>
+  <si>
+    <t>Sell far OTM PE</t>
+  </si>
+  <si>
+    <t>Bear CALL spread</t>
+  </si>
+  <si>
+    <t>Bear PUT spread</t>
+  </si>
+  <si>
+    <t>Sell PE slight OTM</t>
+  </si>
+  <si>
+    <t>Buy PE ATM</t>
+  </si>
+  <si>
+    <t>Buy CE OTM</t>
+  </si>
+  <si>
+    <t>Sell CE ITM</t>
+  </si>
+  <si>
+    <t>Sell PE ITM</t>
+  </si>
+  <si>
+    <t>Long Straddle</t>
+  </si>
+  <si>
+    <t>Short Straddle</t>
+  </si>
+  <si>
+    <t>Long Strangle</t>
+  </si>
+  <si>
+    <t>Short Strangle</t>
+  </si>
+  <si>
+    <t>Very "Bullish or Bearish"</t>
+  </si>
+  <si>
+    <t>NOT Very "Bullish or Bearish"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy CE slight OTM </t>
+  </si>
+  <si>
+    <t>Buy PE slight OTM</t>
+  </si>
+  <si>
+    <t>Sell CE ATM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell CE slight OTM </t>
   </si>
 </sst>
 </file>
@@ -222,7 +343,7 @@
     <numFmt numFmtId="165" formatCode="&quot;Rs.&quot;\ #,##0.00;[Red]&quot;Rs.&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;₹&quot;#,##0;[Red]&quot;₹&quot;#,##0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,8 +476,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +566,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +692,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,23 +764,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,7 +775,36 @@
     <xf numFmtId="3" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -992,11 +1145,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.25">
       <c r="E6" s="29" t="s">
@@ -1045,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AE005-184B-1943-9D30-C7A1D1A17FC4}">
-  <dimension ref="C2:K10"/>
+  <dimension ref="C2:K13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,12 +1215,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="5" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
@@ -1235,6 +1388,32 @@
       <c r="K10" s="3">
         <f t="shared" ref="K10" si="5">(J10-H10)/H10</f>
         <v>0.23399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>33300</v>
+      </c>
+      <c r="F13">
+        <v>0.31</v>
+      </c>
+      <c r="G13">
+        <v>400</v>
+      </c>
+      <c r="H13">
+        <v>240</v>
+      </c>
+      <c r="I13">
+        <f>G13*F13</f>
+        <v>124</v>
+      </c>
+      <c r="J13">
+        <f>I13+H13</f>
+        <v>364</v>
+      </c>
+      <c r="K13" s="3">
+        <f>(J13-H13)/H13</f>
+        <v>0.51666666666666672</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1429,7 @@
   <dimension ref="A2:U21"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1264,30 +1443,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="L2" s="41" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="L2" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
@@ -1301,55 +1480,55 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="33" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="42" t="s">
+      <c r="T4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="42" t="s">
+      <c r="U4" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1380,11 +1559,11 @@
         <f>G5+F5</f>
         <v>800</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="36">
         <f>H5*75</f>
         <v>60000</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="37">
         <f>I5-42360</f>
         <v>17640</v>
       </c>
@@ -1397,7 +1576,7 @@
       <c r="N5">
         <v>75</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="40">
         <f>M5*N5</f>
         <v>16653.75</v>
       </c>
@@ -1414,11 +1593,11 @@
         <f>R5+Q5</f>
         <v>700</v>
       </c>
-      <c r="T5" s="45">
+      <c r="T5" s="36">
         <f>S5*75</f>
         <v>52500</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="37">
         <f>T5-35344</f>
         <v>17156</v>
       </c>
@@ -1450,11 +1629,11 @@
         <f t="shared" ref="H6:H21" si="0">G6+F6</f>
         <v>700</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="36">
         <f t="shared" ref="I6:I21" si="1">H6*75</f>
         <v>52500</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="37">
         <f t="shared" ref="J6:J21" si="2">I6-42360</f>
         <v>10140</v>
       </c>
@@ -1484,19 +1663,19 @@
         <f t="shared" ref="S6:S21" si="3">R6+Q6</f>
         <v>600</v>
       </c>
-      <c r="T6" s="45">
+      <c r="T6" s="36">
         <f t="shared" ref="T6:T21" si="4">S6*75</f>
         <v>45000</v>
       </c>
-      <c r="U6" s="46">
+      <c r="U6" s="37">
         <f t="shared" ref="U6:U21" si="5">T6-35344</f>
         <v>9656</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35">
         <f>SUM(D5:D6)</f>
         <v>42360</v>
       </c>
@@ -1513,17 +1692,17 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="36">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="37">
         <f t="shared" si="2"/>
         <v>2640</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="50">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="41">
         <f>SUM(O5:O6)</f>
         <v>35343.75</v>
       </c>
@@ -1540,11 +1719,11 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="T7" s="45">
+      <c r="T7" s="36">
         <f t="shared" si="4"/>
         <v>37500</v>
       </c>
-      <c r="U7" s="46">
+      <c r="U7" s="37">
         <f t="shared" si="5"/>
         <v>2156</v>
       </c>
@@ -1563,11 +1742,11 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="36">
         <f t="shared" si="1"/>
         <v>37500</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="38">
         <f t="shared" si="2"/>
         <v>-4860</v>
       </c>
@@ -1584,11 +1763,11 @@
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="T8" s="45">
+      <c r="T8" s="36">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="U8" s="47">
+      <c r="U8" s="38">
         <f t="shared" si="5"/>
         <v>-5344</v>
       </c>
@@ -1607,11 +1786,11 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="36">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="38">
         <f t="shared" si="2"/>
         <v>-12360</v>
       </c>
@@ -1628,11 +1807,11 @@
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="T9" s="45">
+      <c r="T9" s="36">
         <f t="shared" si="4"/>
         <v>22500</v>
       </c>
-      <c r="U9" s="47">
+      <c r="U9" s="38">
         <f t="shared" si="5"/>
         <v>-12844</v>
       </c>
@@ -1651,11 +1830,11 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="36">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="38">
         <f t="shared" si="2"/>
         <v>-19860</v>
       </c>
@@ -1672,11 +1851,11 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="T10" s="45">
+      <c r="T10" s="36">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="U10" s="47">
+      <c r="U10" s="38">
         <f t="shared" si="5"/>
         <v>-20344</v>
       </c>
@@ -1695,11 +1874,11 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="36">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="38">
         <f t="shared" si="2"/>
         <v>-27360</v>
       </c>
@@ -1716,11 +1895,11 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="T11" s="45">
+      <c r="T11" s="36">
         <f t="shared" si="4"/>
         <v>7500</v>
       </c>
-      <c r="U11" s="47">
+      <c r="U11" s="38">
         <f t="shared" si="5"/>
         <v>-27844</v>
       </c>
@@ -1739,11 +1918,11 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="36">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="38">
         <f t="shared" si="2"/>
         <v>-34860</v>
       </c>
@@ -1760,55 +1939,55 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U12" s="47">
+      <c r="U12" s="38">
         <f t="shared" si="5"/>
         <v>-35344</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E13" s="43">
+      <c r="E13" s="34">
         <v>14900</v>
       </c>
-      <c r="F13" s="43">
-        <v>0</v>
-      </c>
-      <c r="G13" s="43">
-        <v>0</v>
-      </c>
-      <c r="H13" s="43">
+      <c r="F13" s="34">
+        <v>0</v>
+      </c>
+      <c r="G13" s="34">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="38">
         <f t="shared" si="2"/>
         <v>-42360</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="34">
         <v>14900</v>
       </c>
-      <c r="Q13" s="43">
-        <v>0</v>
-      </c>
-      <c r="R13" s="43">
-        <v>0</v>
-      </c>
-      <c r="S13" s="43">
+      <c r="Q13" s="34">
+        <v>0</v>
+      </c>
+      <c r="R13" s="34">
+        <v>0</v>
+      </c>
+      <c r="S13" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T13" s="48">
+      <c r="T13" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U13" s="47">
+      <c r="U13" s="38">
         <f t="shared" si="5"/>
         <v>-35344</v>
       </c>
@@ -1827,11 +2006,11 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="36">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="38">
         <f t="shared" si="2"/>
         <v>-34860</v>
       </c>
@@ -1848,11 +2027,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T14" s="45">
+      <c r="T14" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U14" s="47">
+      <c r="U14" s="38">
         <f t="shared" si="5"/>
         <v>-35344</v>
       </c>
@@ -1871,11 +2050,11 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="36">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="38">
         <f t="shared" si="2"/>
         <v>-27360</v>
       </c>
@@ -1892,11 +2071,11 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="36">
         <f t="shared" si="4"/>
         <v>7500</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="38">
         <f t="shared" si="5"/>
         <v>-27844</v>
       </c>
@@ -1915,11 +2094,11 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="36">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="38">
         <f t="shared" si="2"/>
         <v>-19860</v>
       </c>
@@ -1936,11 +2115,11 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="36">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="U16" s="47">
+      <c r="U16" s="38">
         <f t="shared" si="5"/>
         <v>-20344</v>
       </c>
@@ -1959,11 +2138,11 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="36">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="38">
         <f t="shared" si="2"/>
         <v>-12360</v>
       </c>
@@ -1980,11 +2159,11 @@
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="36">
         <f t="shared" si="4"/>
         <v>22500</v>
       </c>
-      <c r="U17" s="47">
+      <c r="U17" s="38">
         <f t="shared" si="5"/>
         <v>-12844</v>
       </c>
@@ -2003,11 +2182,11 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="36">
         <f t="shared" si="1"/>
         <v>37500</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="38">
         <f t="shared" si="2"/>
         <v>-4860</v>
       </c>
@@ -2024,11 +2203,11 @@
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="36">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="U18" s="47">
+      <c r="U18" s="38">
         <f t="shared" si="5"/>
         <v>-5344</v>
       </c>
@@ -2047,11 +2226,11 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="36">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="37">
         <f t="shared" si="2"/>
         <v>2640</v>
       </c>
@@ -2068,11 +2247,11 @@
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="36">
         <f t="shared" si="4"/>
         <v>37500</v>
       </c>
-      <c r="U19" s="46">
+      <c r="U19" s="37">
         <f t="shared" si="5"/>
         <v>2156</v>
       </c>
@@ -2091,11 +2270,11 @@
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="36">
         <f t="shared" si="1"/>
         <v>52500</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="37">
         <f t="shared" si="2"/>
         <v>10140</v>
       </c>
@@ -2112,11 +2291,11 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="36">
         <f t="shared" si="4"/>
         <v>45000</v>
       </c>
-      <c r="U20" s="46">
+      <c r="U20" s="37">
         <f t="shared" si="5"/>
         <v>9656</v>
       </c>
@@ -2135,11 +2314,11 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="36">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="37">
         <f t="shared" si="2"/>
         <v>17640</v>
       </c>
@@ -2156,11 +2335,11 @@
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="T21" s="45">
+      <c r="T21" s="36">
         <f t="shared" si="4"/>
         <v>52500</v>
       </c>
-      <c r="U21" s="46">
+      <c r="U21" s="37">
         <f t="shared" si="5"/>
         <v>17156</v>
       </c>
@@ -2175,6 +2354,209 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA6D94B-6B40-A745-9C3A-815A885E6FD2}">
+  <dimension ref="C5:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" s="52" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="C5" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C7" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C8" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C10" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C11" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C12" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C13" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C14" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C15" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C16" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C17" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C18" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46438A62-3AC3-F843-A8D4-A58E565EA94A}">
   <dimension ref="D4:E18"/>
   <sheetViews>
@@ -2190,18 +2572,18 @@
   <sheetData>
     <row r="4" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="5" t="s">
@@ -2303,7 +2685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCBB51-4AF3-FD4B-A043-A4621ACBF22E}">
   <dimension ref="C4:I17"/>
   <sheetViews>
@@ -2408,11 +2790,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C2EF3C-66FF-F748-9EAF-0DCFFFC78FCB}">
   <dimension ref="C2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>

--- a/Finance Workbook.xlsx
+++ b/Finance Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopikrishna/Desktop/Stock-Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D16DE69-C60C-1946-B5DE-2896921061A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18374AE1-8899-D149-9786-C805BCA77984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32680" windowHeight="17440" activeTab="3" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>Strike price</t>
   </si>
@@ -295,12 +295,6 @@
   </si>
   <si>
     <t>Buy CE OTM</t>
-  </si>
-  <si>
-    <t>Sell CE ITM</t>
-  </si>
-  <si>
-    <t>Sell PE ITM</t>
   </si>
   <si>
     <t>Long Straddle</t>
@@ -775,6 +769,18 @@
     <xf numFmtId="3" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,18 +801,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1145,11 +1139,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.25">
       <c r="E6" s="29" t="s">
@@ -1215,12 +1209,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="5" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
@@ -1443,30 +1437,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="L2" s="45" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="L2" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
@@ -2369,185 +2363,185 @@
     <col min="6" max="6" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" s="52" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="C5" s="55" t="s">
+    <row r="5" spans="3:6" s="42" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="C5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="45" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C13" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C14" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C15" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C16" s="44" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C13" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C14" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C15" s="54" t="s">
+      <c r="D16" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C17" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D17" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C16" s="54" t="s">
+      <c r="F17" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C18" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C17" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="53" t="s">
+      <c r="D18" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="43" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="C18" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="43" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2572,18 +2566,18 @@
   <sheetData>
     <row r="4" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="5" t="s">

--- a/Finance Workbook.xlsx
+++ b/Finance Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopikrishna/Desktop/Stock-Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18374AE1-8899-D149-9786-C805BCA77984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D3609C-2146-FE49-B98A-021CB3D915AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32680" windowHeight="17440" activeTab="3" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32680" windowHeight="17440" activeTab="1" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
   </bookViews>
   <sheets>
     <sheet name="Futures" sheetId="7" r:id="rId1"/>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AE005-184B-1943-9D30-C7A1D1A17FC4}">
   <dimension ref="C2:K13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,25 +1389,25 @@
         <v>33300</v>
       </c>
       <c r="F13">
-        <v>0.31</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G13">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H13">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <f>G13*F13</f>
-        <v>124</v>
+        <v>10.6</v>
       </c>
       <c r="J13">
         <f>I13+H13</f>
-        <v>364</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K13" s="3">
         <f>(J13-H13)/H13</f>
-        <v>0.51666666666666672</v>
+        <v>1.3250000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA6D94B-6B40-A745-9C3A-815A885E6FD2}">
   <dimension ref="C5:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/Finance Workbook.xlsx
+++ b/Finance Workbook.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopikrishna/Desktop/Stock-Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D3609C-2146-FE49-B98A-021CB3D915AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D5E92-E160-BB4D-BC7D-56E30FD5CF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32680" windowHeight="17440" activeTab="1" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33060" windowHeight="18160" activeTab="3" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
   </bookViews>
   <sheets>
     <sheet name="Futures" sheetId="7" r:id="rId1"/>
     <sheet name="Options" sheetId="1" r:id="rId2"/>
-    <sheet name="Straddle vs Strangle" sheetId="8" r:id="rId3"/>
-    <sheet name="Options Strategy" sheetId="9" r:id="rId4"/>
-    <sheet name="Retirement" sheetId="4" r:id="rId5"/>
-    <sheet name="Expense Ratio" sheetId="5" r:id="rId6"/>
-    <sheet name="XIIR" sheetId="6" r:id="rId7"/>
+    <sheet name="Swing strategy Index" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId4"/>
+    <sheet name="Straddle vs Strangle" sheetId="8" r:id="rId5"/>
+    <sheet name="Options Strategy" sheetId="9" r:id="rId6"/>
+    <sheet name="Retirement" sheetId="4" r:id="rId7"/>
+    <sheet name="Expense Ratio" sheetId="5" r:id="rId8"/>
+    <sheet name="XIIR" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$H$9:$H$39</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$I$9:$I$39</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$H$9:$H$39</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$I$9:$I$39</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$H$9:$H$39</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$I$9:$I$39</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$H$9:$H$39</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$I$9:$I$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>Strike price</t>
   </si>
@@ -325,19 +337,67 @@
   </si>
   <si>
     <t xml:space="preserve">Sell CE slight OTM </t>
+  </si>
+  <si>
+    <t>Starting Capital</t>
+  </si>
+  <si>
+    <t>Lot size</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>1 brick</t>
+  </si>
+  <si>
+    <t>100 points</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>Profit / Loss</t>
+  </si>
+  <si>
+    <t>TREND CHASER SWING STRATEGY BACKTEST</t>
+  </si>
+  <si>
+    <t>BANK NIFTY</t>
+  </si>
+  <si>
+    <t>1st Mar 2021</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>#Leg</t>
+  </si>
+  <si>
+    <t>Bricks</t>
+  </si>
+  <si>
+    <t>P/L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;#,##0_);[Red]\(&quot;₹&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="&quot;Rs.&quot;\ #,##0.00;[Red]&quot;Rs.&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;₹&quot;#,##0;[Red]&quot;₹&quot;#,##0"/>
+    <numFmt numFmtId="172" formatCode="[$₹-4009]\ #,##0;[Red][$₹-4009]\ #,##0"/>
+    <numFmt numFmtId="174" formatCode="[$₹-4009]\ #,##0;[Red][$₹-4009]\ \-#,##0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,8 +544,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +649,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,13 +774,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,10 +896,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="15" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="18" fillId="11" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="18" fillId="11" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="22" fillId="15" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="3"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -827,6 +953,1001 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Trend chaser strategy P/L</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$9:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>"₹"#,##0_);[Red]\("₹"#,##0\)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>127500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>222500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>217500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>237500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>232500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>285000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>307500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC41-CA4B-93A3-44C37D4A6C06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="247736784"/>
+        <c:axId val="349292848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="247736784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349292848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349292848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;₹&quot;#,##0_);[Red]\(&quot;₹&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247736784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D42D272-FCF6-534D-8CDD-85A6A496E106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AE005-184B-1943-9D30-C7A1D1A17FC4}">
   <dimension ref="C2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1419,6 +2540,975 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E856AF-94E4-6D4E-A04E-22BA87FD1854}">
+  <dimension ref="A2:AH14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="60">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="61">
+        <v>164000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="57">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="62">
+        <v>16</v>
+      </c>
+      <c r="E12" s="64">
+        <v>-2</v>
+      </c>
+      <c r="F12" s="62">
+        <v>8</v>
+      </c>
+      <c r="G12" s="64">
+        <v>-2</v>
+      </c>
+      <c r="H12" s="68">
+        <v>4</v>
+      </c>
+      <c r="I12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="J12" s="68">
+        <v>20</v>
+      </c>
+      <c r="K12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="L12" s="68">
+        <v>2</v>
+      </c>
+      <c r="M12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="N12" s="68">
+        <v>8</v>
+      </c>
+      <c r="O12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="P12" s="68">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="R12" s="68">
+        <v>3</v>
+      </c>
+      <c r="S12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="T12" s="68">
+        <v>4</v>
+      </c>
+      <c r="U12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="V12" s="68">
+        <v>11</v>
+      </c>
+      <c r="W12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="X12" s="68">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="Z12" s="68">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="AB12" s="68">
+        <v>11</v>
+      </c>
+      <c r="AC12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="AD12" s="68">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="AF12" s="68">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="69">
+        <v>-2</v>
+      </c>
+      <c r="AH12" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="63">
+        <f>D12*$C$8</f>
+        <v>40000</v>
+      </c>
+      <c r="E13" s="65">
+        <f>E12*$C$8</f>
+        <v>-5000</v>
+      </c>
+      <c r="F13" s="67">
+        <f>F12*$C$8</f>
+        <v>20000</v>
+      </c>
+      <c r="G13" s="65">
+        <f>G12*$C$8</f>
+        <v>-5000</v>
+      </c>
+      <c r="H13" s="67">
+        <f>H12*$C$8</f>
+        <v>10000</v>
+      </c>
+      <c r="I13" s="65">
+        <f>I12*$C$8</f>
+        <v>-5000</v>
+      </c>
+      <c r="J13" s="67">
+        <f>J12*$C$8</f>
+        <v>50000</v>
+      </c>
+      <c r="K13" s="65">
+        <f>K12*$C$8</f>
+        <v>-5000</v>
+      </c>
+      <c r="L13" s="67">
+        <f t="shared" ref="L13:AH13" si="0">L12*$C$8</f>
+        <v>5000</v>
+      </c>
+      <c r="M13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="N13" s="67">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="O13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="P13" s="67">
+        <f t="shared" si="0"/>
+        <v>12500</v>
+      </c>
+      <c r="Q13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="R13" s="67">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="S13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="T13" s="67">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="U13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="V13" s="67">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+      <c r="W13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="X13" s="67">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="Y13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="Z13" s="67">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="AA13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="AB13" s="67">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+      <c r="AC13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="AD13" s="67">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="AE13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="AF13" s="67">
+        <f t="shared" si="0"/>
+        <v>57500</v>
+      </c>
+      <c r="AG13" s="65">
+        <f t="shared" si="0"/>
+        <v>-5000</v>
+      </c>
+      <c r="AH13" s="67">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="63">
+        <f>D13</f>
+        <v>40000</v>
+      </c>
+      <c r="E14" s="66">
+        <f>D14+E13</f>
+        <v>35000</v>
+      </c>
+      <c r="F14" s="63">
+        <f>E14+F13</f>
+        <v>55000</v>
+      </c>
+      <c r="G14" s="66">
+        <f t="shared" ref="G14:K14" si="1">F14+G13</f>
+        <v>50000</v>
+      </c>
+      <c r="H14" s="63">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="I14" s="66">
+        <f t="shared" si="1"/>
+        <v>55000</v>
+      </c>
+      <c r="J14" s="63">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+      <c r="K14" s="66">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="L14" s="63">
+        <f t="shared" ref="L14" si="2">K14+L13</f>
+        <v>105000</v>
+      </c>
+      <c r="M14" s="66">
+        <f t="shared" ref="M14" si="3">L14+M13</f>
+        <v>100000</v>
+      </c>
+      <c r="N14" s="63">
+        <f t="shared" ref="N14" si="4">M14+N13</f>
+        <v>120000</v>
+      </c>
+      <c r="O14" s="66">
+        <f t="shared" ref="O14" si="5">N14+O13</f>
+        <v>115000</v>
+      </c>
+      <c r="P14" s="63">
+        <f t="shared" ref="P14" si="6">O14+P13</f>
+        <v>127500</v>
+      </c>
+      <c r="Q14" s="66">
+        <f t="shared" ref="Q14" si="7">P14+Q13</f>
+        <v>122500</v>
+      </c>
+      <c r="R14" s="63">
+        <f t="shared" ref="R14" si="8">Q14+R13</f>
+        <v>130000</v>
+      </c>
+      <c r="S14" s="66">
+        <f t="shared" ref="S14" si="9">R14+S13</f>
+        <v>125000</v>
+      </c>
+      <c r="T14" s="63">
+        <f t="shared" ref="T14" si="10">S14+T13</f>
+        <v>135000</v>
+      </c>
+      <c r="U14" s="66">
+        <f t="shared" ref="U14" si="11">T14+U13</f>
+        <v>130000</v>
+      </c>
+      <c r="V14" s="63">
+        <f t="shared" ref="V14" si="12">U14+V13</f>
+        <v>157500</v>
+      </c>
+      <c r="W14" s="66">
+        <f t="shared" ref="W14" si="13">V14+W13</f>
+        <v>152500</v>
+      </c>
+      <c r="X14" s="63">
+        <f t="shared" ref="X14" si="14">W14+X13</f>
+        <v>155000</v>
+      </c>
+      <c r="Y14" s="66">
+        <f t="shared" ref="Y14" si="15">X14+Y13</f>
+        <v>150000</v>
+      </c>
+      <c r="Z14" s="63">
+        <f t="shared" ref="Z14" si="16">Y14+Z13</f>
+        <v>200000</v>
+      </c>
+      <c r="AA14" s="66">
+        <f t="shared" ref="AA14" si="17">Z14+AA13</f>
+        <v>195000</v>
+      </c>
+      <c r="AB14" s="63">
+        <f t="shared" ref="AB14" si="18">AA14+AB13</f>
+        <v>222500</v>
+      </c>
+      <c r="AC14" s="66">
+        <f t="shared" ref="AC14" si="19">AB14+AC13</f>
+        <v>217500</v>
+      </c>
+      <c r="AD14" s="63">
+        <f t="shared" ref="AD14" si="20">AC14+AD13</f>
+        <v>237500</v>
+      </c>
+      <c r="AE14" s="66">
+        <f t="shared" ref="AE14" si="21">AD14+AE13</f>
+        <v>232500</v>
+      </c>
+      <c r="AF14" s="63">
+        <f t="shared" ref="AF14" si="22">AE14+AF13</f>
+        <v>290000</v>
+      </c>
+      <c r="AG14" s="66">
+        <f t="shared" ref="AG14" si="23">AF14+AG13</f>
+        <v>285000</v>
+      </c>
+      <c r="AH14" s="63">
+        <f t="shared" ref="AH14" si="24">AG14+AH13</f>
+        <v>307500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B395504C-D6E7-9C46-8397-A92BDC104866}">
+  <dimension ref="F8:AR39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="6:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="F8" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9" s="71">
+        <v>40000</v>
+      </c>
+      <c r="I9" s="70">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I10" s="70">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="11" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="71">
+        <v>20000</v>
+      </c>
+      <c r="I11" s="70">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="12" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>-2</v>
+      </c>
+      <c r="H12" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I12" s="70">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="71">
+        <v>10000</v>
+      </c>
+      <c r="I13" s="70">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>-2</v>
+      </c>
+      <c r="H14" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I14" s="70">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="15" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15" s="71">
+        <v>50000</v>
+      </c>
+      <c r="I15" s="70">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="16" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>-2</v>
+      </c>
+      <c r="H16" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I16" s="70">
+        <v>100000</v>
+      </c>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="70"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="70"/>
+    </row>
+    <row r="17" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="71">
+        <v>5000</v>
+      </c>
+      <c r="I17" s="70">
+        <v>105000</v>
+      </c>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="70"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="70"/>
+    </row>
+    <row r="18" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>-2</v>
+      </c>
+      <c r="H18" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I18" s="70">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19" s="71">
+        <v>20000</v>
+      </c>
+      <c r="I19" s="70">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="20" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>-2</v>
+      </c>
+      <c r="H20" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I20" s="70">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="21" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" s="71">
+        <v>12500</v>
+      </c>
+      <c r="I21" s="70">
+        <v>127500</v>
+      </c>
+    </row>
+    <row r="22" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>-2</v>
+      </c>
+      <c r="H22" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I22" s="70">
+        <v>122500</v>
+      </c>
+    </row>
+    <row r="23" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="71">
+        <v>7500</v>
+      </c>
+      <c r="I23" s="70">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="24" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>-2</v>
+      </c>
+      <c r="H24" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I24" s="70">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="25" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" s="71">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="70">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="26" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>-2</v>
+      </c>
+      <c r="H26" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I26" s="70">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="27" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27" s="71">
+        <v>27500</v>
+      </c>
+      <c r="I27" s="70">
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="28" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>-2</v>
+      </c>
+      <c r="H28" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I28" s="70">
+        <v>152500</v>
+      </c>
+    </row>
+    <row r="29" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="71">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="70">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="30" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>-2</v>
+      </c>
+      <c r="H30" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I30" s="70">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="31" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31" s="71">
+        <v>50000</v>
+      </c>
+      <c r="I31" s="70">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="32" spans="6:44" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>-2</v>
+      </c>
+      <c r="H32" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I32" s="70">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33" s="71">
+        <v>27500</v>
+      </c>
+      <c r="I33" s="70">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>26</v>
+      </c>
+      <c r="G34">
+        <v>-2</v>
+      </c>
+      <c r="H34" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I34" s="70">
+        <v>217500</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>27</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35" s="71">
+        <v>20000</v>
+      </c>
+      <c r="I35" s="70">
+        <v>237500</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>28</v>
+      </c>
+      <c r="G36">
+        <v>-2</v>
+      </c>
+      <c r="H36" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I36" s="70">
+        <v>232500</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>23</v>
+      </c>
+      <c r="H37" s="71">
+        <v>57500</v>
+      </c>
+      <c r="I37" s="70">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>-2</v>
+      </c>
+      <c r="H38" s="71">
+        <v>-5000</v>
+      </c>
+      <c r="I38" s="70">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>31</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39" s="71">
+        <v>22500</v>
+      </c>
+      <c r="I39" s="70">
+        <v>307500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584EC7AD-322E-BE47-A368-5BD4EA95D8F5}">
   <dimension ref="A2:U21"/>
   <sheetViews>
@@ -2347,7 +4437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA6D94B-6B40-A745-9C3A-815A885E6FD2}">
   <dimension ref="C5:F18"/>
   <sheetViews>
@@ -2550,7 +4640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46438A62-3AC3-F843-A8D4-A58E565EA94A}">
   <dimension ref="D4:E18"/>
   <sheetViews>
@@ -2679,7 +4769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCBB51-4AF3-FD4B-A043-A4621ACBF22E}">
   <dimension ref="C4:I17"/>
   <sheetViews>
@@ -2784,7 +4874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C2EF3C-66FF-F748-9EAF-0DCFFFC78FCB}">
   <dimension ref="C2:G29"/>
   <sheetViews>

--- a/Finance Workbook.xlsx
+++ b/Finance Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopikrishna/Desktop/Stock-Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D5E92-E160-BB4D-BC7D-56E30FD5CF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CDE42-9472-7948-A0FB-A004AE8F41A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33060" windowHeight="18160" activeTab="3" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33060" windowHeight="18160" activeTab="1" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
   </bookViews>
   <sheets>
     <sheet name="Futures" sheetId="7" r:id="rId1"/>
@@ -23,16 +23,6 @@
     <sheet name="Expense Ratio" sheetId="5" r:id="rId8"/>
     <sheet name="XIIR" sheetId="6" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$H$9:$H$39</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$I$9:$I$39</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$H$9:$H$39</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$I$9:$I$39</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$H$9:$H$39</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$I$9:$I$39</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$H$9:$H$39</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$I$9:$I$39</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -394,8 +384,8 @@
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="&quot;Rs.&quot;\ #,##0.00;[Red]&quot;Rs.&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;₹&quot;#,##0;[Red]&quot;₹&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="[$₹-4009]\ #,##0;[Red][$₹-4009]\ #,##0"/>
-    <numFmt numFmtId="174" formatCode="[$₹-4009]\ #,##0;[Red][$₹-4009]\ \-#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$₹-4009]\ #,##0;[Red][$₹-4009]\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="[$₹-4009]\ #,##0;[Red][$₹-4009]\ \-#,##0"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -876,10 +866,40 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="15" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="11" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="18" fillId="11" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="22" fillId="15" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="3"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -896,36 +916,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="15" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="18" fillId="11" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="18" fillId="11" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="22" fillId="15" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="3"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2260,11 +2250,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.25">
       <c r="E6" s="29" t="s">
@@ -2315,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AE005-184B-1943-9D30-C7A1D1A17FC4}">
   <dimension ref="C2:K13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2330,12 +2320,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="5" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
@@ -2507,28 +2497,28 @@
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E13">
-        <v>33300</v>
+        <v>14800</v>
       </c>
       <c r="F13">
-        <v>5.2999999999999999E-2</v>
+        <v>-0.37559999999999999</v>
       </c>
       <c r="G13">
-        <v>200</v>
+        <v>-150</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <f>G13*F13</f>
-        <v>10.6</v>
+        <v>56.339999999999996</v>
       </c>
       <c r="J13">
         <f>I13+H13</f>
-        <v>18.600000000000001</v>
+        <v>100.34</v>
       </c>
       <c r="K13" s="3">
         <f>(J13-H13)/H13</f>
-        <v>1.3250000000000002</v>
+        <v>1.2804545454545455</v>
       </c>
     </row>
   </sheetData>
@@ -2559,21 +2549,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="62" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2581,7 +2571,7 @@
       <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="49">
         <v>200000</v>
       </c>
     </row>
@@ -2589,7 +2579,7 @@
       <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="50">
         <v>25</v>
       </c>
     </row>
@@ -2597,7 +2587,7 @@
       <c r="A7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="50">
         <v>164000</v>
       </c>
     </row>
@@ -2605,10 +2595,10 @@
       <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="47">
         <v>2500</v>
       </c>
     </row>
@@ -2619,97 +2609,97 @@
       <c r="C12" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="51">
         <v>16</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="53">
         <v>-2</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="51">
         <v>8</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="53">
         <v>-2</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="57">
         <v>4</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="58">
         <v>-2</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="57">
         <v>20</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="58">
         <v>-2</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="57">
         <v>2</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="58">
         <v>-2</v>
       </c>
-      <c r="N12" s="68">
+      <c r="N12" s="57">
         <v>8</v>
       </c>
-      <c r="O12" s="69">
+      <c r="O12" s="58">
         <v>-2</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="57">
         <v>5</v>
       </c>
-      <c r="Q12" s="69">
+      <c r="Q12" s="58">
         <v>-2</v>
       </c>
-      <c r="R12" s="68">
+      <c r="R12" s="57">
         <v>3</v>
       </c>
-      <c r="S12" s="69">
+      <c r="S12" s="58">
         <v>-2</v>
       </c>
-      <c r="T12" s="68">
+      <c r="T12" s="57">
         <v>4</v>
       </c>
-      <c r="U12" s="69">
+      <c r="U12" s="58">
         <v>-2</v>
       </c>
-      <c r="V12" s="68">
+      <c r="V12" s="57">
         <v>11</v>
       </c>
-      <c r="W12" s="69">
+      <c r="W12" s="58">
         <v>-2</v>
       </c>
-      <c r="X12" s="68">
+      <c r="X12" s="57">
         <v>1</v>
       </c>
-      <c r="Y12" s="69">
+      <c r="Y12" s="58">
         <v>-2</v>
       </c>
-      <c r="Z12" s="68">
+      <c r="Z12" s="57">
         <v>20</v>
       </c>
-      <c r="AA12" s="69">
+      <c r="AA12" s="58">
         <v>-2</v>
       </c>
-      <c r="AB12" s="68">
+      <c r="AB12" s="57">
         <v>11</v>
       </c>
-      <c r="AC12" s="69">
+      <c r="AC12" s="58">
         <v>-2</v>
       </c>
-      <c r="AD12" s="68">
+      <c r="AD12" s="57">
         <v>8</v>
       </c>
-      <c r="AE12" s="69">
+      <c r="AE12" s="58">
         <v>-2</v>
       </c>
-      <c r="AF12" s="68">
+      <c r="AF12" s="57">
         <v>23</v>
       </c>
-      <c r="AG12" s="69">
+      <c r="AG12" s="58">
         <v>-2</v>
       </c>
-      <c r="AH12" s="68">
+      <c r="AH12" s="57">
         <v>9</v>
       </c>
     </row>
@@ -2717,128 +2707,128 @@
       <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="63">
-        <f>D12*$C$8</f>
+      <c r="D13" s="52">
+        <f t="shared" ref="D13:K13" si="0">D12*$C$8</f>
         <v>40000</v>
       </c>
-      <c r="E13" s="65">
-        <f>E12*$C$8</f>
-        <v>-5000</v>
-      </c>
-      <c r="F13" s="67">
-        <f>F12*$C$8</f>
-        <v>20000</v>
-      </c>
-      <c r="G13" s="65">
-        <f>G12*$C$8</f>
-        <v>-5000</v>
-      </c>
-      <c r="H13" s="67">
-        <f>H12*$C$8</f>
-        <v>10000</v>
-      </c>
-      <c r="I13" s="65">
-        <f>I12*$C$8</f>
-        <v>-5000</v>
-      </c>
-      <c r="J13" s="67">
-        <f>J12*$C$8</f>
-        <v>50000</v>
-      </c>
-      <c r="K13" s="65">
-        <f>K12*$C$8</f>
-        <v>-5000</v>
-      </c>
-      <c r="L13" s="67">
-        <f t="shared" ref="L13:AH13" si="0">L12*$C$8</f>
-        <v>5000</v>
-      </c>
-      <c r="M13" s="65">
+      <c r="E13" s="54">
         <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
-      <c r="N13" s="67">
+      <c r="F13" s="56">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="O13" s="65">
+      <c r="G13" s="54">
         <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
-      <c r="P13" s="67">
-        <f t="shared" si="0"/>
-        <v>12500</v>
-      </c>
-      <c r="Q13" s="65">
-        <f t="shared" si="0"/>
-        <v>-5000</v>
-      </c>
-      <c r="R13" s="67">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="S13" s="65">
-        <f t="shared" si="0"/>
-        <v>-5000</v>
-      </c>
-      <c r="T13" s="67">
+      <c r="H13" s="56">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="U13" s="65">
+      <c r="I13" s="54">
         <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
-      <c r="V13" s="67">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="W13" s="65">
-        <f t="shared" si="0"/>
-        <v>-5000</v>
-      </c>
-      <c r="X13" s="67">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="Y13" s="65">
-        <f t="shared" si="0"/>
-        <v>-5000</v>
-      </c>
-      <c r="Z13" s="67">
+      <c r="J13" s="56">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="AA13" s="65">
+      <c r="K13" s="54">
         <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
-      <c r="AB13" s="67">
-        <f t="shared" si="0"/>
+      <c r="L13" s="56">
+        <f t="shared" ref="L13:AH13" si="1">L12*$C$8</f>
+        <v>5000</v>
+      </c>
+      <c r="M13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="N13" s="56">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="O13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="P13" s="56">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="Q13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="R13" s="56">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="S13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="T13" s="56">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="U13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="V13" s="56">
+        <f t="shared" si="1"/>
         <v>27500</v>
       </c>
-      <c r="AC13" s="65">
-        <f t="shared" si="0"/>
-        <v>-5000</v>
-      </c>
-      <c r="AD13" s="67">
-        <f t="shared" si="0"/>
+      <c r="W13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="X13" s="56">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="Y13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="Z13" s="56">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="AA13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="AB13" s="56">
+        <f t="shared" si="1"/>
+        <v>27500</v>
+      </c>
+      <c r="AC13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="AD13" s="56">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="AE13" s="65">
-        <f t="shared" si="0"/>
-        <v>-5000</v>
-      </c>
-      <c r="AF13" s="67">
-        <f t="shared" si="0"/>
+      <c r="AE13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="AF13" s="56">
+        <f t="shared" si="1"/>
         <v>57500</v>
       </c>
-      <c r="AG13" s="65">
-        <f t="shared" si="0"/>
-        <v>-5000</v>
-      </c>
-      <c r="AH13" s="67">
-        <f t="shared" si="0"/>
+      <c r="AG13" s="54">
+        <f t="shared" si="1"/>
+        <v>-5000</v>
+      </c>
+      <c r="AH13" s="56">
+        <f t="shared" si="1"/>
         <v>22500</v>
       </c>
     </row>
@@ -2846,128 +2836,128 @@
       <c r="C14" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="52">
         <f>D13</f>
         <v>40000</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="55">
         <f>D14+E13</f>
         <v>35000</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="52">
         <f>E14+F13</f>
         <v>55000</v>
       </c>
-      <c r="G14" s="66">
-        <f t="shared" ref="G14:K14" si="1">F14+G13</f>
+      <c r="G14" s="55">
+        <f t="shared" ref="G14:K14" si="2">F14+G13</f>
         <v>50000</v>
       </c>
-      <c r="H14" s="63">
-        <f t="shared" si="1"/>
+      <c r="H14" s="52">
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="I14" s="66">
-        <f t="shared" si="1"/>
+      <c r="I14" s="55">
+        <f t="shared" si="2"/>
         <v>55000</v>
       </c>
-      <c r="J14" s="63">
-        <f t="shared" si="1"/>
+      <c r="J14" s="52">
+        <f t="shared" si="2"/>
         <v>105000</v>
       </c>
-      <c r="K14" s="66">
-        <f t="shared" si="1"/>
+      <c r="K14" s="55">
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="L14" s="63">
-        <f t="shared" ref="L14" si="2">K14+L13</f>
+      <c r="L14" s="52">
+        <f t="shared" ref="L14" si="3">K14+L13</f>
         <v>105000</v>
       </c>
-      <c r="M14" s="66">
-        <f t="shared" ref="M14" si="3">L14+M13</f>
+      <c r="M14" s="55">
+        <f t="shared" ref="M14" si="4">L14+M13</f>
         <v>100000</v>
       </c>
-      <c r="N14" s="63">
-        <f t="shared" ref="N14" si="4">M14+N13</f>
+      <c r="N14" s="52">
+        <f t="shared" ref="N14" si="5">M14+N13</f>
         <v>120000</v>
       </c>
-      <c r="O14" s="66">
-        <f t="shared" ref="O14" si="5">N14+O13</f>
+      <c r="O14" s="55">
+        <f t="shared" ref="O14" si="6">N14+O13</f>
         <v>115000</v>
       </c>
-      <c r="P14" s="63">
-        <f t="shared" ref="P14" si="6">O14+P13</f>
+      <c r="P14" s="52">
+        <f t="shared" ref="P14" si="7">O14+P13</f>
         <v>127500</v>
       </c>
-      <c r="Q14" s="66">
-        <f t="shared" ref="Q14" si="7">P14+Q13</f>
+      <c r="Q14" s="55">
+        <f t="shared" ref="Q14" si="8">P14+Q13</f>
         <v>122500</v>
       </c>
-      <c r="R14" s="63">
-        <f t="shared" ref="R14" si="8">Q14+R13</f>
+      <c r="R14" s="52">
+        <f t="shared" ref="R14" si="9">Q14+R13</f>
         <v>130000</v>
       </c>
-      <c r="S14" s="66">
-        <f t="shared" ref="S14" si="9">R14+S13</f>
+      <c r="S14" s="55">
+        <f t="shared" ref="S14" si="10">R14+S13</f>
         <v>125000</v>
       </c>
-      <c r="T14" s="63">
-        <f t="shared" ref="T14" si="10">S14+T13</f>
+      <c r="T14" s="52">
+        <f t="shared" ref="T14" si="11">S14+T13</f>
         <v>135000</v>
       </c>
-      <c r="U14" s="66">
-        <f t="shared" ref="U14" si="11">T14+U13</f>
+      <c r="U14" s="55">
+        <f t="shared" ref="U14" si="12">T14+U13</f>
         <v>130000</v>
       </c>
-      <c r="V14" s="63">
-        <f t="shared" ref="V14" si="12">U14+V13</f>
+      <c r="V14" s="52">
+        <f t="shared" ref="V14" si="13">U14+V13</f>
         <v>157500</v>
       </c>
-      <c r="W14" s="66">
-        <f t="shared" ref="W14" si="13">V14+W13</f>
+      <c r="W14" s="55">
+        <f t="shared" ref="W14" si="14">V14+W13</f>
         <v>152500</v>
       </c>
-      <c r="X14" s="63">
-        <f t="shared" ref="X14" si="14">W14+X13</f>
+      <c r="X14" s="52">
+        <f t="shared" ref="X14" si="15">W14+X13</f>
         <v>155000</v>
       </c>
-      <c r="Y14" s="66">
-        <f t="shared" ref="Y14" si="15">X14+Y13</f>
+      <c r="Y14" s="55">
+        <f t="shared" ref="Y14" si="16">X14+Y13</f>
         <v>150000</v>
       </c>
-      <c r="Z14" s="63">
-        <f t="shared" ref="Z14" si="16">Y14+Z13</f>
+      <c r="Z14" s="52">
+        <f t="shared" ref="Z14" si="17">Y14+Z13</f>
         <v>200000</v>
       </c>
-      <c r="AA14" s="66">
-        <f t="shared" ref="AA14" si="17">Z14+AA13</f>
+      <c r="AA14" s="55">
+        <f t="shared" ref="AA14" si="18">Z14+AA13</f>
         <v>195000</v>
       </c>
-      <c r="AB14" s="63">
-        <f t="shared" ref="AB14" si="18">AA14+AB13</f>
+      <c r="AB14" s="52">
+        <f t="shared" ref="AB14" si="19">AA14+AB13</f>
         <v>222500</v>
       </c>
-      <c r="AC14" s="66">
-        <f t="shared" ref="AC14" si="19">AB14+AC13</f>
+      <c r="AC14" s="55">
+        <f t="shared" ref="AC14" si="20">AB14+AC13</f>
         <v>217500</v>
       </c>
-      <c r="AD14" s="63">
-        <f t="shared" ref="AD14" si="20">AC14+AD13</f>
+      <c r="AD14" s="52">
+        <f t="shared" ref="AD14" si="21">AC14+AD13</f>
         <v>237500</v>
       </c>
-      <c r="AE14" s="66">
-        <f t="shared" ref="AE14" si="21">AD14+AE13</f>
+      <c r="AE14" s="55">
+        <f t="shared" ref="AE14" si="22">AD14+AE13</f>
         <v>232500</v>
       </c>
-      <c r="AF14" s="63">
-        <f t="shared" ref="AF14" si="22">AE14+AF13</f>
+      <c r="AF14" s="52">
+        <f t="shared" ref="AF14" si="23">AE14+AF13</f>
         <v>290000</v>
       </c>
-      <c r="AG14" s="66">
-        <f t="shared" ref="AG14" si="23">AF14+AG13</f>
+      <c r="AG14" s="55">
+        <f t="shared" ref="AG14" si="24">AF14+AG13</f>
         <v>285000</v>
       </c>
-      <c r="AH14" s="63">
-        <f t="shared" ref="AH14" si="24">AG14+AH13</f>
+      <c r="AH14" s="52">
+        <f t="shared" ref="AH14" si="25">AG14+AH13</f>
         <v>307500</v>
       </c>
     </row>
@@ -2983,7 +2973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B395504C-D6E7-9C46-8397-A92BDC104866}">
   <dimension ref="F8:AR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="D5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
@@ -2993,16 +2983,16 @@
   </cols>
   <sheetData>
     <row r="8" spans="6:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="61" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3013,10 +3003,10 @@
       <c r="G9">
         <v>16</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="60">
         <v>40000</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="59">
         <v>40000</v>
       </c>
     </row>
@@ -3027,10 +3017,10 @@
       <c r="G10">
         <v>-2</v>
       </c>
-      <c r="H10" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I10" s="70">
+      <c r="H10" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I10" s="59">
         <v>35000</v>
       </c>
     </row>
@@ -3041,10 +3031,10 @@
       <c r="G11">
         <v>8</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="60">
         <v>20000</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="59">
         <v>55000</v>
       </c>
     </row>
@@ -3055,10 +3045,10 @@
       <c r="G12">
         <v>-2</v>
       </c>
-      <c r="H12" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I12" s="70">
+      <c r="H12" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I12" s="59">
         <v>50000</v>
       </c>
     </row>
@@ -3069,10 +3059,10 @@
       <c r="G13">
         <v>4</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="60">
         <v>10000</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="59">
         <v>60000</v>
       </c>
     </row>
@@ -3083,10 +3073,10 @@
       <c r="G14">
         <v>-2</v>
       </c>
-      <c r="H14" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I14" s="70">
+      <c r="H14" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I14" s="59">
         <v>55000</v>
       </c>
     </row>
@@ -3097,10 +3087,10 @@
       <c r="G15">
         <v>20</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="60">
         <v>50000</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="59">
         <v>105000</v>
       </c>
     </row>
@@ -3111,43 +3101,43 @@
       <c r="G16">
         <v>-2</v>
       </c>
-      <c r="H16" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I16" s="70">
+      <c r="H16" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I16" s="59">
         <v>100000</v>
       </c>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="70"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="70"/>
-      <c r="AM16" s="70"/>
-      <c r="AN16" s="70"/>
-      <c r="AO16" s="70"/>
-      <c r="AP16" s="70"/>
-      <c r="AQ16" s="70"/>
-      <c r="AR16" s="70"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="59"/>
+      <c r="AO16" s="59"/>
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="59"/>
+      <c r="AR16" s="59"/>
     </row>
     <row r="17" spans="6:44" x14ac:dyDescent="0.2">
       <c r="F17">
@@ -3156,43 +3146,43 @@
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="60">
         <v>5000</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="59">
         <v>105000</v>
       </c>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="70"/>
-      <c r="AM17" s="70"/>
-      <c r="AN17" s="70"/>
-      <c r="AO17" s="70"/>
-      <c r="AP17" s="70"/>
-      <c r="AQ17" s="70"/>
-      <c r="AR17" s="70"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="59"/>
     </row>
     <row r="18" spans="6:44" x14ac:dyDescent="0.2">
       <c r="F18">
@@ -3201,10 +3191,10 @@
       <c r="G18">
         <v>-2</v>
       </c>
-      <c r="H18" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I18" s="70">
+      <c r="H18" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I18" s="59">
         <v>100000</v>
       </c>
     </row>
@@ -3215,10 +3205,10 @@
       <c r="G19">
         <v>8</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="60">
         <v>20000</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="59">
         <v>120000</v>
       </c>
     </row>
@@ -3229,10 +3219,10 @@
       <c r="G20">
         <v>-2</v>
       </c>
-      <c r="H20" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I20" s="70">
+      <c r="H20" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I20" s="59">
         <v>115000</v>
       </c>
     </row>
@@ -3243,10 +3233,10 @@
       <c r="G21">
         <v>5</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="60">
         <v>12500</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="59">
         <v>127500</v>
       </c>
     </row>
@@ -3257,10 +3247,10 @@
       <c r="G22">
         <v>-2</v>
       </c>
-      <c r="H22" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I22" s="70">
+      <c r="H22" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I22" s="59">
         <v>122500</v>
       </c>
     </row>
@@ -3271,10 +3261,10 @@
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="60">
         <v>7500</v>
       </c>
-      <c r="I23" s="70">
+      <c r="I23" s="59">
         <v>130000</v>
       </c>
     </row>
@@ -3285,10 +3275,10 @@
       <c r="G24">
         <v>-2</v>
       </c>
-      <c r="H24" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I24" s="70">
+      <c r="H24" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I24" s="59">
         <v>125000</v>
       </c>
     </row>
@@ -3299,10 +3289,10 @@
       <c r="G25">
         <v>4</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="60">
         <v>10000</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="59">
         <v>135000</v>
       </c>
     </row>
@@ -3313,10 +3303,10 @@
       <c r="G26">
         <v>-2</v>
       </c>
-      <c r="H26" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I26" s="70">
+      <c r="H26" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I26" s="59">
         <v>130000</v>
       </c>
     </row>
@@ -3327,10 +3317,10 @@
       <c r="G27">
         <v>11</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="60">
         <v>27500</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="59">
         <v>157500</v>
       </c>
     </row>
@@ -3341,10 +3331,10 @@
       <c r="G28">
         <v>-2</v>
       </c>
-      <c r="H28" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I28" s="70">
+      <c r="H28" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I28" s="59">
         <v>152500</v>
       </c>
     </row>
@@ -3355,10 +3345,10 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="60">
         <v>2500</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="59">
         <v>155000</v>
       </c>
     </row>
@@ -3369,10 +3359,10 @@
       <c r="G30">
         <v>-2</v>
       </c>
-      <c r="H30" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I30" s="70">
+      <c r="H30" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I30" s="59">
         <v>150000</v>
       </c>
     </row>
@@ -3383,10 +3373,10 @@
       <c r="G31">
         <v>20</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="60">
         <v>50000</v>
       </c>
-      <c r="I31" s="70">
+      <c r="I31" s="59">
         <v>200000</v>
       </c>
     </row>
@@ -3397,10 +3387,10 @@
       <c r="G32">
         <v>-2</v>
       </c>
-      <c r="H32" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I32" s="70">
+      <c r="H32" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I32" s="59">
         <v>195000</v>
       </c>
     </row>
@@ -3411,10 +3401,10 @@
       <c r="G33">
         <v>11</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="60">
         <v>27500</v>
       </c>
-      <c r="I33" s="70">
+      <c r="I33" s="59">
         <v>222500</v>
       </c>
     </row>
@@ -3425,10 +3415,10 @@
       <c r="G34">
         <v>-2</v>
       </c>
-      <c r="H34" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I34" s="70">
+      <c r="H34" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I34" s="59">
         <v>217500</v>
       </c>
     </row>
@@ -3439,10 +3429,10 @@
       <c r="G35">
         <v>8</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="60">
         <v>20000</v>
       </c>
-      <c r="I35" s="70">
+      <c r="I35" s="59">
         <v>237500</v>
       </c>
     </row>
@@ -3453,10 +3443,10 @@
       <c r="G36">
         <v>-2</v>
       </c>
-      <c r="H36" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I36" s="70">
+      <c r="H36" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I36" s="59">
         <v>232500</v>
       </c>
     </row>
@@ -3467,10 +3457,10 @@
       <c r="G37">
         <v>23</v>
       </c>
-      <c r="H37" s="71">
+      <c r="H37" s="60">
         <v>57500</v>
       </c>
-      <c r="I37" s="70">
+      <c r="I37" s="59">
         <v>290000</v>
       </c>
     </row>
@@ -3481,10 +3471,10 @@
       <c r="G38">
         <v>-2</v>
       </c>
-      <c r="H38" s="71">
-        <v>-5000</v>
-      </c>
-      <c r="I38" s="70">
+      <c r="H38" s="60">
+        <v>-5000</v>
+      </c>
+      <c r="I38" s="59">
         <v>285000</v>
       </c>
     </row>
@@ -3495,10 +3485,10 @@
       <c r="G39">
         <v>9</v>
       </c>
-      <c r="H39" s="71">
+      <c r="H39" s="60">
         <v>22500</v>
       </c>
-      <c r="I39" s="70">
+      <c r="I39" s="59">
         <v>307500</v>
       </c>
     </row>
@@ -3527,30 +3517,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="L2" s="49" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="L2" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
@@ -4656,18 +4646,18 @@
   <sheetData>
     <row r="4" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
     </row>
     <row r="8" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="5" t="s">

--- a/Finance Workbook.xlsx
+++ b/Finance Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopikrishna/Desktop/Stock-Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CDE42-9472-7948-A0FB-A004AE8F41A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65BEBB1-D9C1-B343-83CD-2AE6A8A00881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33060" windowHeight="18160" activeTab="1" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33060" windowHeight="18160" activeTab="2" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
   </bookViews>
   <sheets>
     <sheet name="Futures" sheetId="7" r:id="rId1"/>
@@ -2305,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8AE005-184B-1943-9D30-C7A1D1A17FC4}">
   <dimension ref="C2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2531,13 +2531,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E856AF-94E4-6D4E-A04E-22BA87FD1854}">
-  <dimension ref="A2:AH14"/>
+  <dimension ref="A2:AH20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2959,6 +2959,188 @@
       <c r="AH14" s="52">
         <f t="shared" ref="AH14" si="25">AG14+AH13</f>
         <v>307500</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>-2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>-2</v>
+      </c>
+      <c r="G18">
+        <v>-2</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>-2</v>
+      </c>
+      <c r="J18">
+        <v>-2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>-2</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>-2</v>
+      </c>
+      <c r="O18">
+        <v>-2</v>
+      </c>
+      <c r="P18">
+        <v>-2</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>-2</v>
+      </c>
+      <c r="S18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D19" s="54">
+        <f t="shared" ref="D19:L20" si="26">D18*$C$8</f>
+        <v>-5000</v>
+      </c>
+      <c r="E19" s="56">
+        <f t="shared" si="26"/>
+        <v>7500</v>
+      </c>
+      <c r="F19" s="54">
+        <f t="shared" si="26"/>
+        <v>-5000</v>
+      </c>
+      <c r="G19" s="54">
+        <f t="shared" si="26"/>
+        <v>-5000</v>
+      </c>
+      <c r="H19" s="56">
+        <f t="shared" si="26"/>
+        <v>12500</v>
+      </c>
+      <c r="I19" s="54">
+        <f t="shared" si="26"/>
+        <v>-5000</v>
+      </c>
+      <c r="J19" s="54">
+        <f t="shared" si="26"/>
+        <v>-5000</v>
+      </c>
+      <c r="K19" s="56">
+        <f t="shared" si="26"/>
+        <v>5000</v>
+      </c>
+      <c r="L19" s="54">
+        <f t="shared" si="26"/>
+        <v>-5000</v>
+      </c>
+      <c r="M19" s="52">
+        <f t="shared" ref="M19:N19" si="27">M18*$C$8</f>
+        <v>40000</v>
+      </c>
+      <c r="N19" s="54">
+        <f t="shared" si="27"/>
+        <v>-5000</v>
+      </c>
+      <c r="O19" s="54">
+        <f t="shared" ref="O19:S19" si="28">O18*$C$8</f>
+        <v>-5000</v>
+      </c>
+      <c r="P19" s="54">
+        <f t="shared" si="28"/>
+        <v>-5000</v>
+      </c>
+      <c r="Q19" s="56">
+        <f t="shared" si="28"/>
+        <v>10000</v>
+      </c>
+      <c r="R19" s="54">
+        <f t="shared" si="28"/>
+        <v>-5000</v>
+      </c>
+      <c r="S19" s="56">
+        <f t="shared" si="28"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D20" s="54">
+        <f>0+D19</f>
+        <v>-5000</v>
+      </c>
+      <c r="E20" s="52">
+        <f>D20+E19</f>
+        <v>2500</v>
+      </c>
+      <c r="F20" s="54">
+        <f>E20+F19</f>
+        <v>-2500</v>
+      </c>
+      <c r="G20" s="54">
+        <f>F20+G19</f>
+        <v>-7500</v>
+      </c>
+      <c r="H20" s="52">
+        <f t="shared" ref="H20:Q20" si="29">G20+H19</f>
+        <v>5000</v>
+      </c>
+      <c r="I20" s="55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="54">
+        <f t="shared" si="29"/>
+        <v>-5000</v>
+      </c>
+      <c r="K20" s="52">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="54">
+        <f t="shared" si="29"/>
+        <v>-5000</v>
+      </c>
+      <c r="M20" s="56">
+        <f t="shared" si="29"/>
+        <v>35000</v>
+      </c>
+      <c r="N20" s="54">
+        <f t="shared" si="29"/>
+        <v>30000</v>
+      </c>
+      <c r="O20" s="54">
+        <f t="shared" si="29"/>
+        <v>25000</v>
+      </c>
+      <c r="P20" s="54">
+        <f t="shared" si="29"/>
+        <v>20000</v>
+      </c>
+      <c r="Q20" s="56">
+        <f t="shared" si="29"/>
+        <v>30000</v>
+      </c>
+      <c r="R20" s="54">
+        <f t="shared" ref="R20" si="30">Q20+R19</f>
+        <v>25000</v>
+      </c>
+      <c r="S20" s="56">
+        <f t="shared" ref="S20" si="31">R20+S19</f>
+        <v>52500</v>
       </c>
     </row>
   </sheetData>

--- a/Finance Workbook.xlsx
+++ b/Finance Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopikrishna/Desktop/Stock-Market/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65BEBB1-D9C1-B343-83CD-2AE6A8A00881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D0B36F-C9AC-A24D-91F3-D5620FD0835F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33060" windowHeight="18160" activeTab="2" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="33060" windowHeight="18160" activeTab="7" xr2:uid="{CF95B6ED-2F58-514F-A8C4-FDA980CA2995}"/>
   </bookViews>
   <sheets>
     <sheet name="Futures" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
   <si>
     <t>Strike price</t>
   </si>
@@ -372,13 +372,22 @@
   </si>
   <si>
     <t>P/L</t>
+  </si>
+  <si>
+    <t>case 4:</t>
+  </si>
+  <si>
+    <t>case 3:</t>
+  </si>
+  <si>
+    <t>case 5:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;₹&quot;#,##0_);[Red]\(&quot;₹&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
@@ -386,6 +395,7 @@
     <numFmt numFmtId="166" formatCode="&quot;₹&quot;#,##0;[Red]&quot;₹&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$₹-4009]\ #,##0;[Red][$₹-4009]\ #,##0"/>
     <numFmt numFmtId="168" formatCode="[$₹-4009]\ #,##0;[Red][$₹-4009]\ \-#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -771,7 +781,7 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,6 +903,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2250,11 +2262,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="6" spans="2:6" ht="20" x14ac:dyDescent="0.25">
       <c r="E6" s="29" t="s">
@@ -2320,12 +2332,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="5" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
@@ -2533,7 +2545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E856AF-94E4-6D4E-A04E-22BA87FD1854}">
   <dimension ref="A2:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -2551,13 +2563,13 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3013,7 +3025,7 @@
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19" s="54">
-        <f t="shared" ref="D19:L20" si="26">D18*$C$8</f>
+        <f t="shared" ref="D19:L19" si="26">D18*$C$8</f>
         <v>-5000</v>
       </c>
       <c r="E19" s="56">
@@ -3699,30 +3711,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="L2" s="67" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="L2" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
@@ -4828,18 +4840,18 @@
   <sheetData>
     <row r="4" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="69"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="4:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="5" t="s">
@@ -4943,10 +4955,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCBB51-4AF3-FD4B-A043-A4621ACBF22E}">
-  <dimension ref="C4:I17"/>
+  <dimension ref="C4:I25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4954,6 +4966,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" customWidth="1"/>
     <col min="9" max="9" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4967,11 +4980,12 @@
         <v>26</v>
       </c>
       <c r="E7" s="4">
-        <v>100000</v>
-      </c>
-      <c r="I7" s="19" t="s">
+        <v>300000</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>31</v>
       </c>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
@@ -4986,7 +5000,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="19" x14ac:dyDescent="0.25">
@@ -5007,7 +5021,7 @@
       </c>
       <c r="E13" s="22">
         <f>(E7*(1+(E8-E12))^E9)</f>
-        <v>1636653.7392946081</v>
+        <v>1213667.320712372</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="19" x14ac:dyDescent="0.25">
@@ -5016,29 +5030,87 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="64">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="16" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="20">
+        <f>(E7*(1+(E8-E15))^E9)</f>
+        <v>1161919.7170635213</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E18" s="18">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+    <row r="19" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="20">
-        <f>(E7*(1+(E8-E16))^E9)</f>
-        <v>1374348.9871854982</v>
+      <c r="E19" s="20">
+        <f>(E7*(1+(E8-E18))^E9)</f>
+        <v>1112166.3942355695</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C21" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="63">
+        <f>(E7*(1+(E8-E21))^E9)</f>
+        <v>1064338.7400999332</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C24" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="63">
+        <f>(E7*(1+(E8-E24))^E9)</f>
+        <v>1018370.2169766658</v>
       </c>
     </row>
   </sheetData>
